--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzq\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\GitHub\JUMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224934B5-2416-4080-AC19-EF4D3C089782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B632C87-FFE0-4DD5-86B2-C8E1AC589A62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5484" yWindow="924" windowWidth="11508" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本の場面" sheetId="1" r:id="rId1"/>
@@ -254,7 +254,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,12 +287,6 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -502,31 +496,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -545,15 +546,8 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -768,7 +762,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
@@ -776,7 +770,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1070,14 +1064,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1026" name="Check Box 2" hidden="1">
@@ -1086,7 +1085,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE666AA-C99C-4FD3-B132-9035F46B8709}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1126,20 +1125,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
@@ -1148,7 +1152,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5226A1B-99FD-4D9F-BDF0-2787D6813958}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1188,20 +1192,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
@@ -1210,7 +1219,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3822F833-0C70-4B46-9BBE-09655D5C87DD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1250,20 +1259,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
@@ -1272,7 +1286,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FFAC98D-8A53-4763-B9B8-4EB7212F5568}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1312,20 +1326,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
@@ -1334,7 +1353,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A235E6B2-C4E1-45F0-B314-87B371738EC8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1374,20 +1393,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
@@ -1396,7 +1420,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA4E76CC-B588-4D13-A2A0-0C102593F03F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1436,20 +1460,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1032" name="Check Box 8" hidden="1">
@@ -1458,7 +1487,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C597A21A-098D-41E4-B77E-C00A30249DD3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1498,20 +1527,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
@@ -1520,7 +1554,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC25E32A-EF13-48B5-A1A9-62B7CBF3F610}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1560,20 +1594,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1034" name="Check Box 10" hidden="1">
@@ -1582,7 +1621,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC1900C9-2666-4848-8B36-29BA8F740E47}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1622,20 +1661,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
@@ -1644,7 +1688,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB25D9F-2A1F-4BEB-A93A-E83D700E9075}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1684,20 +1728,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1036" name="Check Box 12" hidden="1">
@@ -1706,7 +1755,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{417A10CC-9772-4D8A-81C8-15AFA1D6DC57}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1746,20 +1795,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
@@ -1768,7 +1822,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940C4832-0A19-4768-9C2D-721C071CEAAD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1808,20 +1862,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
@@ -1830,7 +1889,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0C74C43-6539-4430-9F77-AF13A29D8375}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1870,20 +1929,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
@@ -1892,7 +1956,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C5FBBE2-9011-408C-BF7A-17B3A37924FB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1932,20 +1996,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
@@ -1954,7 +2023,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3509D2D4-264B-4ADD-A8A8-C56EB009D777}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1994,20 +2063,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
@@ -2016,7 +2090,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F257D634-4835-4112-9F25-5393CDF7590C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2056,20 +2130,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
@@ -2078,7 +2157,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6611A995-FE1A-47B7-B53A-60DC9F3BCC69}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2118,20 +2197,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
@@ -2140,7 +2224,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2F46AE0-608E-4C6E-B0DB-1604F8947A54}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2180,20 +2264,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
@@ -2202,7 +2291,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D2F30D-78B0-461F-BEE7-2BBC65227A61}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2242,20 +2331,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
@@ -2264,7 +2358,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B675846B-E9AF-49FA-9A0F-24AB1F6DE91C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2304,20 +2398,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
@@ -2326,7 +2425,7 @@
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A8BEE3-C745-4501-9A8B-D49918C72DD3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2366,20 +2465,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1047" name="Check Box 23" hidden="1">
@@ -2388,7 +2492,7 @@
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF10C19-7915-43FF-AD5F-4F634AC2A9D5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2428,20 +2532,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
@@ -2450,7 +2559,7 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78EE0ACC-86B0-4C16-9DB9-B9BD0B908350}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2490,20 +2599,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
@@ -2512,7 +2626,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{453362D0-F146-48D0-BB50-E1F70C491590}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2552,20 +2666,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
@@ -2574,7 +2693,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE45F901-EC4C-4BD0-B70E-4756E5ECD0E3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2614,20 +2733,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
@@ -2636,7 +2760,7 @@
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADCB326E-1BD1-4733-B662-0D628D064444}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2676,20 +2800,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
@@ -2698,7 +2827,7 @@
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{119B0F17-2205-4A84-A122-33AF55D1D6F8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2738,20 +2867,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
@@ -2760,7 +2894,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{211EF537-80F2-4F11-9106-51B4E56B5BAE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2800,20 +2934,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
@@ -2822,7 +2961,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7433CBCB-9898-46CA-944B-BDB2966CF1AB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2862,20 +3001,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
@@ -2884,7 +3028,7 @@
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264D656A-ABA6-4B9D-A6C3-A934C54A2E66}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2924,20 +3068,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
@@ -2946,7 +3095,7 @@
                   <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF369B8D-C2AE-4EB8-B017-3114B21689C2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2986,20 +3135,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
@@ -3008,7 +3162,7 @@
                   <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D04AEA1-A1A3-4815-BCA5-E443830A6078}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3048,20 +3202,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
@@ -3070,7 +3229,7 @@
                   <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09EB6C7E-62DB-40C8-AC7A-E802F3CA9163}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3110,20 +3269,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
@@ -3132,7 +3296,7 @@
                   <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2373697F-7045-4B70-9D2D-EF75C29CC010}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3172,20 +3336,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
@@ -3194,7 +3363,7 @@
                   <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F873B71-7A5F-4B73-8EDB-80361FE664EF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3234,20 +3403,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
@@ -3256,7 +3430,7 @@
                   <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55CFDAC9-9E26-4510-8450-A960379E0F9A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3296,20 +3470,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
@@ -3318,7 +3497,7 @@
                   <a14:compatExt spid="_x0000_s1062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB4AFBAC-5456-4383-BC79-CD47EEDBD307}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3358,20 +3537,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
@@ -3380,7 +3564,7 @@
                   <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C972A9C3-22D1-441B-AEE5-6E154537DC21}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3420,20 +3604,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
@@ -3442,7 +3631,7 @@
                   <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A426EE-685C-4E91-AB4C-8D078DA55696}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3482,20 +3671,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
@@ -3504,7 +3698,7 @@
                   <a14:compatExt spid="_x0000_s1065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5028B2-ABF8-4EEF-8EF5-D8BF1FDE8596}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3544,20 +3738,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
@@ -3566,7 +3765,7 @@
                   <a14:compatExt spid="_x0000_s1066"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08F5FC1-D9EA-4B8E-9FD8-D180E9568855}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3606,20 +3805,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
@@ -3628,7 +3832,7 @@
                   <a14:compatExt spid="_x0000_s1067"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D6FA74-4C15-4063-80DA-2F2A9A1B110B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3668,20 +3872,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
@@ -3690,7 +3899,7 @@
                   <a14:compatExt spid="_x0000_s1068"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375F3A6B-948C-4807-B19B-B25B95D64DC8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3730,20 +3939,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1069" name="Check Box 45" hidden="1">
@@ -3752,7 +3966,7 @@
                   <a14:compatExt spid="_x0000_s1069"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89F34F3D-2A54-4E4C-A70D-05B7046576D2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3792,20 +4006,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1070" name="Check Box 46" hidden="1">
@@ -3814,7 +4033,7 @@
                   <a14:compatExt spid="_x0000_s1070"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAFFAE29-DF13-48C7-B239-5A1F7CC03D40}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3854,20 +4073,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
@@ -3876,7 +4100,7 @@
                   <a14:compatExt spid="_x0000_s1071"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E734165-0484-44E7-A0B8-03F4EFAECEBD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3916,20 +4140,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
@@ -3938,7 +4167,7 @@
                   <a14:compatExt spid="_x0000_s1072"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73CBC724-7367-4959-A21D-A7F96CE80B30}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3978,20 +4207,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1073" name="Check Box 49" hidden="1">
@@ -4000,7 +4234,7 @@
                   <a14:compatExt spid="_x0000_s1073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7D3E6F0-D80D-4AC1-9885-1AF836141693}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4040,20 +4274,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1074" name="Check Box 50" hidden="1">
@@ -4062,7 +4301,7 @@
                   <a14:compatExt spid="_x0000_s1074"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4DE1770-F99C-4129-B375-CD9D6E6E7000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4102,20 +4341,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1075" name="Check Box 51" hidden="1">
@@ -4124,7 +4368,7 @@
                   <a14:compatExt spid="_x0000_s1075"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6589902-7306-476E-BDC8-6001D506DCBB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4164,20 +4408,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>15240</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="449580" cy="137160"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1076" name="Check Box 52" hidden="1">
@@ -4186,7 +4435,7 @@
                   <a14:compatExt spid="_x0000_s1076"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0629E92-F0E2-4F91-9B94-25F00787E1DB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4226,20 +4475,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1077" name="Check Box 53" hidden="1">
@@ -4248,7 +4502,7 @@
                   <a14:compatExt spid="_x0000_s1077"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319557C6-CEC5-40D7-B8A3-96184CB47EBD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4288,20 +4542,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1078" name="Check Box 54" hidden="1">
@@ -4310,7 +4569,7 @@
                   <a14:compatExt spid="_x0000_s1078"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4839585-E0EC-4809-8B35-B0FB60A676AC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4350,20 +4609,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1079" name="Check Box 55" hidden="1">
@@ -4372,7 +4636,7 @@
                   <a14:compatExt spid="_x0000_s1079"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{568560D9-17C7-4E17-A4F7-5DC503BB3A6E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4412,20 +4676,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1080" name="Check Box 56" hidden="1">
@@ -4434,7 +4703,7 @@
                   <a14:compatExt spid="_x0000_s1080"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3186599B-9DB4-462E-8DD0-E3F6246755C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4474,20 +4743,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1081" name="Check Box 57" hidden="1">
@@ -4496,7 +4770,7 @@
                   <a14:compatExt spid="_x0000_s1081"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE4610C-D972-49DB-8DEE-26A6527DFE47}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4536,20 +4810,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1082" name="Check Box 58" hidden="1">
@@ -4558,7 +4837,7 @@
                   <a14:compatExt spid="_x0000_s1082"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD010014-AE9B-4756-8EDE-B43FD9282223}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4598,20 +4877,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1083" name="Check Box 59" hidden="1">
@@ -4620,7 +4904,7 @@
                   <a14:compatExt spid="_x0000_s1083"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0894A320-4402-4248-8099-297771100A74}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4660,20 +4944,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1084" name="Check Box 60" hidden="1">
@@ -4682,7 +4971,7 @@
                   <a14:compatExt spid="_x0000_s1084"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC15F029-D82D-4511-971A-82B32994CFB2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4722,20 +5011,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1085" name="Check Box 61" hidden="1">
@@ -4744,7 +5038,7 @@
                   <a14:compatExt spid="_x0000_s1085"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{531A1168-1616-42A1-86AA-C9B412068EAA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4784,20 +5078,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1086" name="Check Box 62" hidden="1">
@@ -4806,7 +5105,7 @@
                   <a14:compatExt spid="_x0000_s1086"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE219D18-6336-4232-A85D-EF9D6F693075}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4846,20 +5145,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1087" name="Check Box 63" hidden="1">
@@ -4868,7 +5172,7 @@
                   <a14:compatExt spid="_x0000_s1087"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F1BC3E-0B12-4CC1-8A14-8220ECE5816D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4908,20 +5212,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1088" name="Check Box 64" hidden="1">
@@ -4930,7 +5239,7 @@
                   <a14:compatExt spid="_x0000_s1088"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7606EF78-D63A-4AE0-81D6-08A89A2741C0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4970,20 +5279,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1089" name="Check Box 65" hidden="1">
@@ -4992,7 +5306,7 @@
                   <a14:compatExt spid="_x0000_s1089"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F1D99D7-7570-4FC9-A303-2D935484F8EF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5032,20 +5346,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1090" name="Check Box 66" hidden="1">
@@ -5054,7 +5373,7 @@
                   <a14:compatExt spid="_x0000_s1090"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0602F5D9-B74A-46CD-A447-B5F34B69009A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5094,20 +5413,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1091" name="Check Box 67" hidden="1">
@@ -5116,7 +5440,7 @@
                   <a14:compatExt spid="_x0000_s1091"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F53FE6-4214-4AF6-9BEB-AEDF8E8E5BB8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5156,20 +5480,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1092" name="Check Box 68" hidden="1">
@@ -5178,7 +5507,7 @@
                   <a14:compatExt spid="_x0000_s1092"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFE08BE5-0C1D-4D2C-866E-FEF6435CDC56}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5218,20 +5547,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1093" name="Check Box 69" hidden="1">
@@ -5240,7 +5574,7 @@
                   <a14:compatExt spid="_x0000_s1093"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B8FB926-0911-47A9-9337-BBA2F17C024E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5280,20 +5614,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1094" name="Check Box 70" hidden="1">
@@ -5302,7 +5641,7 @@
                   <a14:compatExt spid="_x0000_s1094"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB001F4-D38A-47C4-9877-5135D7F21CBD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5342,20 +5681,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1095" name="Check Box 71" hidden="1">
@@ -5364,7 +5708,7 @@
                   <a14:compatExt spid="_x0000_s1095"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C78C54-D0B5-4F27-AE69-CD9093F7B0F7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5404,20 +5748,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1096" name="Check Box 72" hidden="1">
@@ -5426,7 +5775,7 @@
                   <a14:compatExt spid="_x0000_s1096"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA70F16B-BD02-4C1E-BCEA-877D15F24690}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5466,20 +5815,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1097" name="Check Box 73" hidden="1">
@@ -5488,7 +5842,7 @@
                   <a14:compatExt spid="_x0000_s1097"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAB37D80-7037-4C4B-B5DF-9977468DB99F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5528,20 +5882,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1098" name="Check Box 74" hidden="1">
@@ -5550,7 +5909,7 @@
                   <a14:compatExt spid="_x0000_s1098"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3DA6064-DC73-42AE-A420-71659858BE39}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5590,20 +5949,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1099" name="Check Box 75" hidden="1">
@@ -5612,7 +5976,7 @@
                   <a14:compatExt spid="_x0000_s1099"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24108969-2DC8-498E-8B84-86B0954B865F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5652,20 +6016,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1100" name="Check Box 76" hidden="1">
@@ -5674,7 +6043,7 @@
                   <a14:compatExt spid="_x0000_s1100"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E67E128-8AD6-46B0-82E7-0CA9950A867A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5714,20 +6083,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1101" name="Check Box 77" hidden="1">
@@ -5736,7 +6110,7 @@
                   <a14:compatExt spid="_x0000_s1101"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB910EAD-6EF4-47E3-B5EB-415B5886190D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5776,20 +6150,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1102" name="Check Box 78" hidden="1">
@@ -5798,7 +6177,7 @@
                   <a14:compatExt spid="_x0000_s1102"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0DEEF60-4D8B-4214-9691-807F8F5B7B46}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5838,20 +6217,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1103" name="Check Box 79" hidden="1">
@@ -5860,7 +6244,7 @@
                   <a14:compatExt spid="_x0000_s1103"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1B4060-CC52-440B-A116-CF7B2C01CE79}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5900,20 +6284,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1104" name="Check Box 80" hidden="1">
@@ -5922,7 +6311,7 @@
                   <a14:compatExt spid="_x0000_s1104"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6BE87C1-2DF7-486B-B67D-6141B43D40DE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5962,20 +6351,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1133" name="Check Box 109" hidden="1">
@@ -5984,7 +6378,7 @@
                   <a14:compatExt spid="_x0000_s1133"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{816A2F9E-B4CA-4E5C-B00C-71170A0D7186}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6024,20 +6418,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1134" name="Check Box 110" hidden="1">
@@ -6046,7 +6445,7 @@
                   <a14:compatExt spid="_x0000_s1134"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CEA3487-8FDF-4717-B59C-16E15DC8CE71}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6086,20 +6485,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1135" name="Check Box 111" hidden="1">
@@ -6108,7 +6512,7 @@
                   <a14:compatExt spid="_x0000_s1135"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB889DB2-B203-4578-9002-D6E797554EC2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6148,20 +6552,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1136" name="Check Box 112" hidden="1">
@@ -6170,7 +6579,7 @@
                   <a14:compatExt spid="_x0000_s1136"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF5F1C2-C523-46A0-97E0-7069B3057787}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6210,20 +6619,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1137" name="Check Box 113" hidden="1">
@@ -6232,7 +6646,7 @@
                   <a14:compatExt spid="_x0000_s1137"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AF3106C-4A03-4A99-B9C9-78E06A78E589}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6272,20 +6686,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1138" name="Check Box 114" hidden="1">
@@ -6294,7 +6713,7 @@
                   <a14:compatExt spid="_x0000_s1138"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762927E5-9189-4F5D-9550-ED648B1AF19D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6334,20 +6753,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1139" name="Check Box 115" hidden="1">
@@ -6356,7 +6780,7 @@
                   <a14:compatExt spid="_x0000_s1139"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44BC1F5B-83E5-498B-9E79-EBB089D894CA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6396,20 +6820,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1140" name="Check Box 116" hidden="1">
@@ -6418,7 +6847,7 @@
                   <a14:compatExt spid="_x0000_s1140"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBBBB8F8-FCB0-4BA1-B116-964EEA06E77E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6458,20 +6887,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1141" name="Check Box 117" hidden="1">
@@ -6480,7 +6914,7 @@
                   <a14:compatExt spid="_x0000_s1141"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00EC9391-6A9A-4F14-83B3-268D2BF07CB7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6520,20 +6954,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1142" name="Check Box 118" hidden="1">
@@ -6542,7 +6981,7 @@
                   <a14:compatExt spid="_x0000_s1142"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E26A35B-BA96-4D9C-AAE0-E06E8D1378A6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6582,20 +7021,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1143" name="Check Box 119" hidden="1">
@@ -6604,7 +7048,7 @@
                   <a14:compatExt spid="_x0000_s1143"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A61E0C50-6E3C-4EC5-9CB1-36E52E1BB161}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6644,20 +7088,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1144" name="Check Box 120" hidden="1">
@@ -6666,7 +7115,7 @@
                   <a14:compatExt spid="_x0000_s1144"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF04196E-93DF-476A-99E1-CB65986F0E79}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6706,20 +7155,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1145" name="Check Box 121" hidden="1">
@@ -6728,7 +7182,7 @@
                   <a14:compatExt spid="_x0000_s1145"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6CD8A5-0CF9-4F13-9C49-FDE8A5476019}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6768,20 +7222,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1146" name="Check Box 122" hidden="1">
@@ -6790,7 +7249,7 @@
                   <a14:compatExt spid="_x0000_s1146"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31ED46B0-0644-4CB7-89F9-A18330F52246}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6830,20 +7289,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1147" name="Check Box 123" hidden="1">
@@ -6852,7 +7316,7 @@
                   <a14:compatExt spid="_x0000_s1147"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55625171-A3D1-4391-B43E-EB2BE5D01016}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6892,20 +7356,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1148" name="Check Box 124" hidden="1">
@@ -6914,7 +7383,7 @@
                   <a14:compatExt spid="_x0000_s1148"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2F4F99C-32F9-4B64-9667-4FC035E142C2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6954,20 +7423,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1149" name="Check Box 125" hidden="1">
@@ -6976,7 +7450,7 @@
                   <a14:compatExt spid="_x0000_s1149"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD814C2A-119E-4B0F-BE70-A3E8C3C5D4F1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7016,20 +7490,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1150" name="Check Box 126" hidden="1">
@@ -7038,7 +7517,7 @@
                   <a14:compatExt spid="_x0000_s1150"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E555158-B43D-4179-AACD-252F36C6BA45}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7078,20 +7557,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1151" name="Check Box 127" hidden="1">
@@ -7100,7 +7584,7 @@
                   <a14:compatExt spid="_x0000_s1151"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C82F0D2B-C5DF-482A-B2E7-29B3F04DF72C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7140,20 +7624,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1152" name="Check Box 128" hidden="1">
@@ -7162,7 +7651,7 @@
                   <a14:compatExt spid="_x0000_s1152"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56FFEA44-F771-4D2A-ACE1-318AA5230EC3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7202,20 +7691,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1153" name="Check Box 129" hidden="1">
@@ -7224,7 +7718,7 @@
                   <a14:compatExt spid="_x0000_s1153"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49F71EB7-D64F-44CB-9065-34DF70F99474}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7264,20 +7758,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1154" name="Check Box 130" hidden="1">
@@ -7286,7 +7785,7 @@
                   <a14:compatExt spid="_x0000_s1154"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A886FAA-B3F5-4596-8C6C-E79BBD8FF8FF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7326,20 +7825,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1155" name="Check Box 131" hidden="1">
@@ -7348,7 +7852,7 @@
                   <a14:compatExt spid="_x0000_s1155"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42CA36D6-3849-495C-A25F-0EBE2863420D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7388,20 +7892,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1156" name="Check Box 132" hidden="1">
@@ -7410,7 +7919,7 @@
                   <a14:compatExt spid="_x0000_s1156"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{168360F6-7AB1-47E2-9A52-9392978708AC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7450,20 +7959,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1157" name="Check Box 133" hidden="1">
@@ -7472,7 +7986,7 @@
                   <a14:compatExt spid="_x0000_s1157"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E4085A-5EEC-4CA3-B55B-5749F4BC93A0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7512,20 +8026,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1158" name="Check Box 134" hidden="1">
@@ -7534,7 +8053,7 @@
                   <a14:compatExt spid="_x0000_s1158"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29011700-405D-48E9-9708-2C46E86CE690}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7574,20 +8093,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="190500" cy="152400"/>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1159" name="Check Box 135" hidden="1">
@@ -7596,7 +8120,7 @@
                   <a14:compatExt spid="_x0000_s1159"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAABAF2D-A3BD-48F6-91F8-49308B5F99A7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7636,7 +8160,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -7908,7 +8432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -7925,609 +8449,625 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="F4" s="3" t="s">
+      <c r="C4" s="22"/>
+      <c r="F4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="2"/>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="13"/>
       <c r="L4" s="2"/>
-      <c r="N4" s="29" t="s">
+      <c r="N4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="29"/>
-      <c r="R4" s="30" t="s">
+      <c r="O4" s="9"/>
+      <c r="R4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="S4" s="30"/>
+      <c r="S4" s="7"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="F5" s="7" t="s">
+      <c r="C5" s="10"/>
+      <c r="F5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="13.2" customHeight="1">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="14">
         <v>44188</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="J6" s="8">
+      <c r="H6" s="29"/>
+      <c r="J6" s="14">
         <v>44195</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="11"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="26">
+      <c r="B7" s="8">
         <v>44180</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="7" t="s">
+      <c r="D7" s="4"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="30"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="11"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="26"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="7" t="s">
+      <c r="D8" s="4"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="30"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="11"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="26"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16" t="s">
+      <c r="D9" s="4"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="17" t="s">
+      <c r="H9" s="4"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="11"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="26"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="F10" s="8">
+      <c r="D10" s="4"/>
+      <c r="F10" s="14">
         <v>44189</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="J10" s="8">
+      <c r="H10" s="4"/>
+      <c r="J10" s="14">
         <v>44196</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="11"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="26">
+      <c r="B11" s="8">
         <v>44181</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="7" t="s">
+      <c r="D11" s="4"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="7" t="s">
+      <c r="H11" s="4"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="11"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="26"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="7" t="s">
+      <c r="D12" s="4"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="7" t="s">
+      <c r="H12" s="4"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="11"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="26"/>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="17" t="s">
+      <c r="D13" s="4"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="J13" s="15"/>
-      <c r="L13" s="11"/>
+      <c r="H13" s="4"/>
+      <c r="J13" s="16"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="F14" s="8">
+      <c r="C14" s="11"/>
+      <c r="F14" s="14">
         <v>44190</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="J14" s="8">
+      <c r="H14" s="4"/>
+      <c r="J14" s="14">
         <v>44197</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="11"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="26">
+      <c r="B15" s="8">
         <v>44182</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="7" t="s">
+      <c r="D15" s="4"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="7" t="s">
+      <c r="H15" s="4"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="11"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="26"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="7" t="s">
+      <c r="D16" s="4"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="7" t="s">
+      <c r="H16" s="4"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="11"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="26"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="17" t="s">
+      <c r="D17" s="4"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="17" t="s">
+      <c r="H17" s="4"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="11"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="26"/>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="F18" s="8">
+      <c r="D18" s="4"/>
+      <c r="F18" s="14">
         <v>44191</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="J18" s="8">
+      <c r="H18" s="4"/>
+      <c r="J18" s="14">
         <v>44198</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L18" s="11"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="26">
+      <c r="B19" s="8">
         <v>44183</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="7" t="s">
+      <c r="D19" s="4"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="7" t="s">
+      <c r="H19" s="4"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="11"/>
+      <c r="L19" s="4"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="26"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="7" t="s">
+      <c r="D20" s="4"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="7" t="s">
+      <c r="H20" s="4"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="11"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="26"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="17" t="s">
+      <c r="D21" s="4"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="17" t="s">
+      <c r="H21" s="4"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L21" s="11"/>
+      <c r="L21" s="4"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="26"/>
-      <c r="C22" s="16" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="F22" s="8">
+      <c r="D22" s="4"/>
+      <c r="F22" s="14">
         <v>44192</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="J22" s="8">
+      <c r="H22" s="4"/>
+      <c r="J22" s="14">
         <v>44199</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L22" s="11"/>
+      <c r="L22" s="4"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="26">
+      <c r="B23" s="8">
         <v>44184</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="7" t="s">
+      <c r="D23" s="4"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="7" t="s">
+      <c r="H23" s="4"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L23" s="11"/>
+      <c r="L23" s="4"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="26"/>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="7" t="s">
+      <c r="D24" s="4"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="7" t="s">
+      <c r="H24" s="4"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="11"/>
+      <c r="L24" s="4"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="26"/>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="17" t="s">
+      <c r="D25" s="4"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="17" t="s">
+      <c r="H25" s="4"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L25" s="11"/>
+      <c r="L25" s="4"/>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="26"/>
-      <c r="C26" s="16" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="F26" s="8">
+      <c r="D26" s="4"/>
+      <c r="F26" s="14">
         <v>44193</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="J26" s="8">
+      <c r="H26" s="4"/>
+      <c r="J26" s="14">
         <v>44200</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="11"/>
+      <c r="L26" s="4"/>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="26">
+      <c r="B27" s="8">
         <v>44185</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="7" t="s">
+      <c r="D27" s="4"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="7" t="s">
+      <c r="H27" s="4"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="11"/>
+      <c r="L27" s="4"/>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="26"/>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="7" t="s">
+      <c r="D28" s="4"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="7" t="s">
+      <c r="H28" s="4"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="11"/>
+      <c r="L28" s="4"/>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="26"/>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="17" t="s">
+      <c r="D29" s="4"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="11"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="17" t="s">
+      <c r="H29" s="4"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L29" s="11"/>
+      <c r="L29" s="4"/>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="26"/>
-      <c r="C30" s="16" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="F30" s="8">
+      <c r="D30" s="4"/>
+      <c r="F30" s="14">
         <v>44194</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="J30" s="8">
+      <c r="H30" s="4"/>
+      <c r="J30" s="14">
         <v>44201</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="11"/>
+      <c r="L30" s="4"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="26">
+      <c r="B31" s="8">
         <v>44186</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="7" t="s">
+      <c r="D31" s="4"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="11"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="7" t="s">
+      <c r="H31" s="4"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="11"/>
+      <c r="L31" s="4"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="26"/>
-      <c r="C32" s="7" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="17" t="s">
+      <c r="D32" s="4"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="17" t="s">
+      <c r="H32" s="4"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L32" s="11"/>
+      <c r="L32" s="4"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="26"/>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="8"/>
+      <c r="C33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="7" t="s">
+      <c r="D33" s="4"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="7" t="s">
+      <c r="H33" s="4"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L33" s="11"/>
+      <c r="L33" s="4"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="26"/>
-      <c r="C34" s="16" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="11"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="40" spans="2:12" ht="18.75" customHeight="1"/>
     <row r="41" spans="2:12" ht="18.75" customHeight="1"/>
     <row r="42" spans="2:12" ht="18.75" customHeight="1"/>
     <row r="50" spans="5:10">
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="19"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="24"/>
     </row>
     <row r="51" spans="5:10">
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="21"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="5:10">
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="23"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E50:J52"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="G6:G8"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="B23:B26"/>
@@ -8544,22 +9084,6 @@
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="F14:F17"/>
     <mergeCell ref="F18:F21"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E50:J52"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="F30:F33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/学习计划.xlsx
+++ b/学习计划.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\GitHub\JUMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B632C87-FFE0-4DD5-86B2-C8E1AC589A62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E383AF88-68D4-49EF-A568-A25181708B0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5484" yWindow="924" windowWidth="11508" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="0" windowWidth="11508" windowHeight="10656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="日本の場面" sheetId="1" r:id="rId1"/>
-    <sheet name="Servelt" sheetId="4" r:id="rId2"/>
-    <sheet name="Tomcat" sheetId="5" r:id="rId3"/>
-    <sheet name="Spring" sheetId="7" r:id="rId4"/>
-    <sheet name="Gold" sheetId="11" r:id="rId5"/>
-    <sheet name="算法" sheetId="2" r:id="rId6"/>
-    <sheet name="设计模式" sheetId="3" r:id="rId7"/>
-    <sheet name="高并发专题" sheetId="6" r:id="rId8"/>
-    <sheet name="Linux" sheetId="8" r:id="rId9"/>
-    <sheet name="计算机基础" sheetId="9" r:id="rId10"/>
+    <sheet name="日常の会話" sheetId="12" r:id="rId2"/>
+    <sheet name="Servelt" sheetId="4" r:id="rId3"/>
+    <sheet name="Tomcat" sheetId="5" r:id="rId4"/>
+    <sheet name="Spring" sheetId="7" r:id="rId5"/>
+    <sheet name="Gold" sheetId="11" r:id="rId6"/>
+    <sheet name="算法" sheetId="2" r:id="rId7"/>
+    <sheet name="设计模式" sheetId="3" r:id="rId8"/>
+    <sheet name="高并发专题" sheetId="6" r:id="rId9"/>
+    <sheet name="Linux" sheetId="8" r:id="rId10"/>
+    <sheet name="计算机基础" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="55">
   <si>
     <t>しごとの日本語</t>
     <rPh sb="4" eb="6">
@@ -248,6 +249,22 @@
   <si>
     <t>日本語初級</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>チェック</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本語初級①</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本語初級②</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -492,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -500,30 +517,9 @@
     <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -548,6 +544,31 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -605,10 +626,26 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp108.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp109.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp110.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp111.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
@@ -782,7 +819,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
@@ -790,7 +827,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8121,6 +8158,279 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2050" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>7620</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2052" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2052"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8432,7 +8742,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -8449,40 +8761,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="F4" s="20" t="s">
+      <c r="C4" s="13"/>
+      <c r="F4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="2"/>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="13"/>
+      <c r="K4" s="33"/>
       <c r="L4" s="2"/>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="R4" s="7" t="s">
+      <c r="O4" s="29"/>
+      <c r="R4" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="S4" s="7"/>
+      <c r="S4" s="27"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="30"/>
       <c r="F5" s="3" t="s">
         <v>23</v>
       </c>
@@ -8512,14 +8824,14 @@
       <c r="D6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="22">
         <v>44188</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="J6" s="14">
+      <c r="H6" s="20"/>
+      <c r="J6" s="22">
         <v>44195</v>
       </c>
       <c r="K6" s="3" t="s">
@@ -8528,68 +8840,68 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="8">
+      <c r="B7" s="28">
         <v>44180</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="30"/>
-      <c r="J7" s="15"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="21"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="8"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="30"/>
-      <c r="J8" s="15"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="21"/>
+      <c r="J8" s="23"/>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="8"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="F9" s="16"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="5" t="s">
         <v>44</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="J9" s="16"/>
+      <c r="J9" s="24"/>
       <c r="K9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="B10" s="8"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="F10" s="14">
+      <c r="F10" s="22">
         <v>44189</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="4"/>
-      <c r="J10" s="14">
+      <c r="J10" s="22">
         <v>44196</v>
       </c>
       <c r="K10" s="3" t="s">
@@ -8598,68 +8910,68 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="8">
+      <c r="B11" s="28">
         <v>44181</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="F11" s="15"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="23"/>
       <c r="K11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="2:19">
-      <c r="B12" s="8"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="F12" s="15"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H12" s="4"/>
-      <c r="J12" s="15"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="8"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="F13" s="16"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="J13" s="16"/>
+      <c r="J13" s="24"/>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="2:19">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="F14" s="14">
+      <c r="C14" s="31"/>
+      <c r="F14" s="22">
         <v>44190</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H14" s="4"/>
-      <c r="J14" s="14">
+      <c r="J14" s="22">
         <v>44197</v>
       </c>
       <c r="K14" s="3" t="s">
@@ -8668,72 +8980,72 @@
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="B15" s="8">
+      <c r="B15" s="28">
         <v>44182</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="F15" s="15"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="J15" s="15"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="2:19">
-      <c r="B16" s="8"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="F16" s="15"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="J16" s="15"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="8"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="F17" s="16"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H17" s="4"/>
-      <c r="J17" s="16"/>
+      <c r="J17" s="24"/>
       <c r="K17" s="6" t="s">
         <v>44</v>
       </c>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="8"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="F18" s="14">
+      <c r="F18" s="22">
         <v>44191</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H18" s="4"/>
-      <c r="J18" s="14">
+      <c r="J18" s="22">
         <v>44198</v>
       </c>
       <c r="K18" s="3" t="s">
@@ -8742,72 +9054,72 @@
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="8">
+      <c r="B19" s="28">
         <v>44183</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="F19" s="15"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H19" s="4"/>
-      <c r="J19" s="15"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="4"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="8"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="F20" s="15"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="3" t="s">
         <v>34</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="J20" s="15"/>
+      <c r="J20" s="23"/>
       <c r="K20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="8"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="F21" s="16"/>
+      <c r="F21" s="24"/>
       <c r="G21" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H21" s="4"/>
-      <c r="J21" s="16"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="6" t="s">
         <v>44</v>
       </c>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="8"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="F22" s="14">
+      <c r="F22" s="22">
         <v>44192</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H22" s="4"/>
-      <c r="J22" s="14">
+      <c r="J22" s="22">
         <v>44199</v>
       </c>
       <c r="K22" s="3" t="s">
@@ -8816,72 +9128,72 @@
       <c r="L22" s="4"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="8">
+      <c r="B23" s="28">
         <v>44184</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="F23" s="15"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="3" t="s">
         <v>36</v>
       </c>
       <c r="H23" s="4"/>
-      <c r="J23" s="15"/>
+      <c r="J23" s="23"/>
       <c r="K23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="8"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="F24" s="15"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H24" s="4"/>
-      <c r="J24" s="15"/>
+      <c r="J24" s="23"/>
       <c r="K24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="L24" s="4"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="8"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="F25" s="16"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H25" s="4"/>
-      <c r="J25" s="16"/>
+      <c r="J25" s="24"/>
       <c r="K25" s="6" t="s">
         <v>44</v>
       </c>
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="8"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="F26" s="14">
+      <c r="F26" s="22">
         <v>44193</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H26" s="4"/>
-      <c r="J26" s="14">
+      <c r="J26" s="22">
         <v>44200</v>
       </c>
       <c r="K26" s="3" t="s">
@@ -8890,72 +9202,72 @@
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="8">
+      <c r="B27" s="28">
         <v>44185</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="F27" s="15"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H27" s="4"/>
-      <c r="J27" s="15"/>
+      <c r="J27" s="23"/>
       <c r="K27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="8"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="F28" s="15"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H28" s="4"/>
-      <c r="J28" s="15"/>
+      <c r="J28" s="23"/>
       <c r="K28" s="3" t="s">
         <v>19</v>
       </c>
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="8"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="F29" s="16"/>
+      <c r="F29" s="24"/>
       <c r="G29" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H29" s="4"/>
-      <c r="J29" s="16"/>
+      <c r="J29" s="24"/>
       <c r="K29" s="6" t="s">
         <v>44</v>
       </c>
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="8"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="F30" s="14">
+      <c r="F30" s="22">
         <v>44194</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H30" s="4"/>
-      <c r="J30" s="14">
+      <c r="J30" s="22">
         <v>44201</v>
       </c>
       <c r="K30" s="3" t="s">
@@ -8964,60 +9276,60 @@
       <c r="L30" s="4"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="8">
+      <c r="B31" s="28">
         <v>44186</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="F31" s="15"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="3" t="s">
         <v>42</v>
       </c>
       <c r="H31" s="4"/>
-      <c r="J31" s="15"/>
+      <c r="J31" s="23"/>
       <c r="K31" s="3" t="s">
         <v>21</v>
       </c>
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="8"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="F32" s="15"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H32" s="4"/>
-      <c r="J32" s="15"/>
+      <c r="J32" s="23"/>
       <c r="K32" s="6" t="s">
         <v>44</v>
       </c>
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="8"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="F33" s="16"/>
+      <c r="F33" s="24"/>
       <c r="G33" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H33" s="4"/>
-      <c r="J33" s="16"/>
+      <c r="J33" s="24"/>
       <c r="K33" s="3" t="s">
         <v>45</v>
       </c>
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="8"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="5" t="s">
         <v>44</v>
       </c>
@@ -9027,31 +9339,47 @@
     <row r="41" spans="2:12" ht="18.75" customHeight="1"/>
     <row r="42" spans="2:12" ht="18.75" customHeight="1"/>
     <row r="50" spans="5:10">
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="24"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="15"/>
     </row>
     <row r="51" spans="5:10">
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="17"/>
     </row>
     <row r="52" spans="5:10">
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="28"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F18:F21"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="B4:C4"/>
@@ -9068,22 +9396,6 @@
     <mergeCell ref="J14:J17"/>
     <mergeCell ref="J18:J21"/>
     <mergeCell ref="G6:G8"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F18:F21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11453,6 +11765,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313C6B93-DA5A-41DD-8EC0-6025A48699FB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36DC849-E814-432E-8F19-CC90583301B2}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11466,6 +11791,172 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD82B7C-F095-4B2E-A323-1E76222ABA63}">
+  <dimension ref="C3:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7">
+      <c r="C3" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="C5" s="9">
+        <v>44193</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="F5" s="9">
+        <v>44192</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" s="9">
+        <v>44194</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="F6" s="9">
+        <v>44193</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2049" r:id="rId4" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>160020</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2050" r:id="rId5" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>160020</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2051" r:id="rId6" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>160020</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2052" r:id="rId7" name="Check Box 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>7620</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>160020</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAE9EB7-06AA-4370-AFCC-BEAC055BB6B4}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11480,7 +11971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA1F947-FC21-4508-843E-0BE91187D98E}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11493,7 +11984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CFCC7D4-3149-4234-B8B2-7352E42C4BB7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11506,7 +11997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBA4DDA-9353-446D-84AD-F3FB6B4EB4E6}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11519,7 +12010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB858109-F8F0-4A7C-A364-C82BF9012136}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11533,7 +12024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4E3D33-2A4B-4794-B961-5545AE7ADB52}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11546,7 +12037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C888639C-960D-44AE-80A5-9263433740CE}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11557,17 +12048,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313C6B93-DA5A-41DD-8EC0-6025A48699FB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>